--- a/data/TunaSaladWithCelerySpring.xlsx
+++ b/data/TunaSaladWithCelerySpring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denis\eclipse-workspace\wildfit-ETL\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D89932-5159-4535-89F6-494F36304597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526BAF0A-DB15-42FF-98BF-01DD01BC83DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34245" yWindow="495" windowWidth="22500" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34245" yWindow="495" windowWidth="22500" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,6 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Tuna salad with apple and celery (Summer)</t>
-  </si>
-  <si>
     <t>Introduction</t>
   </si>
   <si>
@@ -181,6 +178,9 @@
   </si>
   <si>
     <t>Dice the pickles and the celery to the same thickness.</t>
+  </si>
+  <si>
+    <t>Tuna salad</t>
   </si>
 </sst>
 </file>
@@ -512,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,30 +535,30 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>15</v>
@@ -570,7 +570,7 @@
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -583,7 +583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72576DC-2686-4A61-B487-4806851E93F0}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -605,33 +605,33 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -639,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -647,7 +647,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -655,7 +655,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -663,7 +663,7 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -671,16 +671,16 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7">
         <v>2</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -688,19 +688,19 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
         <v>34</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
         <v>35</v>
       </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>36</v>
-      </c>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -708,16 +708,16 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
         <v>37</v>
       </c>
-      <c r="F9" t="s">
-        <v>38</v>
-      </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -725,19 +725,19 @@
         <v>4</v>
       </c>
       <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
         <v>39</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
         <v>40</v>
       </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>41</v>
-      </c>
       <c r="I10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -745,21 +745,21 @@
         <v>5</v>
       </c>
       <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
         <v>42</v>
-      </c>
-      <c r="F11" t="s">
-        <v>43</v>
       </c>
       <c r="G11">
         <v>4</v>
       </c>
       <c r="H11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -767,16 +767,16 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
         <v>22</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -784,19 +784,19 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" t="s">
         <v>24</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -804,19 +804,19 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
         <v>26</v>
-      </c>
-      <c r="F15" t="s">
-        <v>27</v>
       </c>
       <c r="G15">
         <v>0.125</v>
       </c>
       <c r="H15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I15" t="s">
         <v>28</v>
-      </c>
-      <c r="I15" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -824,19 +824,19 @@
         <v>4</v>
       </c>
       <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
         <v>30</v>
-      </c>
-      <c r="F16" t="s">
-        <v>31</v>
       </c>
       <c r="G16">
         <v>0.125</v>
       </c>
       <c r="H16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" t="s">
         <v>28</v>
-      </c>
-      <c r="I16" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/data/TunaSaladWithCelerySpring.xlsx
+++ b/data/TunaSaladWithCelerySpring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denis\eclipse-workspace\wildfit-ETL\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{526BAF0A-DB15-42FF-98BF-01DD01BC83DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DB6EB1-D9AE-407C-BC62-5BAF52872BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34245" yWindow="495" windowWidth="22500" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34695" yWindow="1200" windowWidth="22500" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>Season</t>
   </si>
@@ -163,9 +163,6 @@
   </si>
   <si>
     <t>Salad</t>
-  </si>
-  <si>
-    <t>Food</t>
   </si>
   <si>
     <t>plain Greek yogurt</t>
@@ -512,7 +509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -552,10 +549,10 @@
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -581,10 +578,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72576DC-2686-4A61-B487-4806851E93F0}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,15 +589,14 @@
     <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="71.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -614,27 +610,24 @@
         <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1</v>
       </c>
@@ -642,15 +635,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>3</v>
       </c>
@@ -658,7 +651,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>4</v>
       </c>
@@ -666,176 +659,149 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8">
+      <c r="G8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9">
         <v>1</v>
       </c>
-      <c r="H8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D10">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11">
         <v>4</v>
       </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>41</v>
       </c>
-      <c r="F11" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11">
-        <v>4</v>
-      </c>
-      <c r="H11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D13">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13">
         <v>1</v>
       </c>
-      <c r="E13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13">
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14">
         <v>1</v>
       </c>
-      <c r="H13" t="s">
+      <c r="G14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
       <c r="H14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D15">
-        <v>3</v>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>25</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" t="s">
         <v>26</v>
       </c>
-      <c r="G15">
+      <c r="F15">
         <v>0.125</v>
       </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
       <c r="H15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16">
+        <v>0.125</v>
+      </c>
+      <c r="G16" t="s">
         <v>27</v>
       </c>
-      <c r="I15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16">
-        <v>0.125</v>
-      </c>
       <c r="H16" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" t="s">
         <v>28</v>
       </c>
     </row>

--- a/data/TunaSaladWithCelerySpring.xlsx
+++ b/data/TunaSaladWithCelerySpring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denis\eclipse-workspace\wildfit-ETL\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DB6EB1-D9AE-407C-BC62-5BAF52872BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17DD3BE-EEBF-4CA6-8973-CA92313EE578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34695" yWindow="1200" windowWidth="22500" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31995" yWindow="4305" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
   <si>
     <t>Season</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>Tuna salad</t>
+  </si>
+  <si>
+    <t>CAN</t>
   </si>
 </sst>
 </file>
@@ -581,7 +584,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,6 +675,9 @@
       <c r="G7" t="s">
         <v>20</v>
       </c>
+      <c r="H7" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
@@ -703,6 +709,9 @@
       <c r="G9" t="s">
         <v>22</v>
       </c>
+      <c r="H9" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
@@ -734,6 +743,9 @@
       <c r="G11" t="s">
         <v>41</v>
       </c>
+      <c r="H11" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -752,6 +764,9 @@
       </c>
       <c r="G13" t="s">
         <v>22</v>
+      </c>
+      <c r="H13" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">

--- a/data/TunaSaladWithCelerySpring.xlsx
+++ b/data/TunaSaladWithCelerySpring.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denis\eclipse-workspace\wildfit-ETL\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17DD3BE-EEBF-4CA6-8973-CA92313EE578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4DBF7B-A1FB-470E-9631-3A0C928EC0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31995" yWindow="4305" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
   <si>
     <t>Season</t>
   </si>
@@ -181,6 +181,12 @@
   </si>
   <si>
     <t>CAN</t>
+  </si>
+  <si>
+    <t>Photo</t>
+  </si>
+  <si>
+    <t>https://static.wixstatic.com/media/a2881c_55a2be23178a4432befe2adc68c5ea3a~mv2.jpg/v1/fill/w_740,h_493,al_c,q_85,usm_0.66_1.00_0.01,enc_auto/a2881c_55a2be23178a4432befe2adc68c5ea3a~mv2.jpg</t>
   </si>
 </sst>
 </file>
@@ -510,24 +516,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="88.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="187.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,8 +556,11 @@
       <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -571,6 +581,9 @@
       </c>
       <c r="G2" t="s">
         <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -583,7 +596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72576DC-2686-4A61-B487-4806851E93F0}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
